--- a/scripts/org_list.xlsx
+++ b/scripts/org_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aparna/PycharmProjects/Acme/AcmeData/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A6F3BE-ED6B-6C41-B1A7-D9DA9C32FE00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC58ECD-D460-FD4E-8BD3-B4C28DEEFA78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="940" windowWidth="27640" windowHeight="16260" xr2:uid="{DCE511A1-AF02-DB4C-B8F6-AE03AF65FE62}"/>
+    <workbookView xWindow="1160" yWindow="800" windowWidth="27640" windowHeight="16260" xr2:uid="{DCE511A1-AF02-DB4C-B8F6-AE03AF65FE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15976972628</v>
       </c>

--- a/scripts/org_list.xlsx
+++ b/scripts/org_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,480 @@
   </si>
   <si>
     <t>tags</t>
+  </si>
+  <si>
+    <t>1,000 Bulbs - aparna</t>
+  </si>
+  <si>
+    <t>1-800-Flowers.Com Inc - aparna</t>
+  </si>
+  <si>
+    <t>1-Stop Connections - aparna</t>
+  </si>
+  <si>
+    <t>1077207-Moneygram International - aparna</t>
+  </si>
+  <si>
+    <t>123456789_flagged_for_inspection - aparna</t>
+  </si>
+  <si>
+    <t>2U - aparna</t>
+  </si>
+  <si>
+    <t>360 Incentives - aparna</t>
+  </si>
+  <si>
+    <t>3Cinteractive - aparna</t>
+  </si>
+  <si>
+    <t>40 Proof - aparna</t>
+  </si>
+  <si>
+    <t>757 Creative Space - aparna</t>
+  </si>
+  <si>
+    <t>8254111111111_flagged_for_inspection - aparna</t>
+  </si>
+  <si>
+    <t>8th Sphere - aparna</t>
+  </si>
+  <si>
+    <t>A10 Capital - aparna</t>
+  </si>
+  <si>
+    <t>ABA English - aparna</t>
+  </si>
+  <si>
+    <t>abbeal - aparna</t>
+  </si>
+  <si>
+    <t>Allied Agent Office - aparna</t>
+  </si>
+  <si>
+    <t>Ardan's - aparna</t>
+  </si>
+  <si>
+    <t>Asian Fusion - aparna</t>
+  </si>
+  <si>
+    <t>Avant Garde Appraisal - aparna</t>
+  </si>
+  <si>
+    <t>Avant Garde Interior Designs - aparna</t>
+  </si>
+  <si>
+    <t>Barbara Todd Org - aparna</t>
+  </si>
+  <si>
+    <t>Beecher Supply - aparna</t>
+  </si>
+  <si>
+    <t>Blockbuster Music - aparna</t>
+  </si>
+  <si>
+    <t>Bob's super ford - aparna</t>
+  </si>
+  <si>
+    <t>Bodega Club - aparna</t>
+  </si>
+  <si>
+    <t>Bugle Boy - aparna</t>
+  </si>
+  <si>
+    <t>Builders Emporium - aparna</t>
+  </si>
+  <si>
+    <t>Burlington Textiles Corp of America - aparna</t>
+  </si>
+  <si>
+    <t>Circuit City - aparna</t>
+  </si>
+  <si>
+    <t>Clemens Markets - aparna</t>
+  </si>
+  <si>
+    <t>Country Club Markets - aparna</t>
+  </si>
+  <si>
+    <t>Country Club Markets2 - aparna</t>
+  </si>
+  <si>
+    <t>Crazy Tiger - aparna</t>
+  </si>
+  <si>
+    <t>Deco Refreshments, Inc. - aparna</t>
+  </si>
+  <si>
+    <t>Dickenson plc - aparna</t>
+  </si>
+  <si>
+    <t>Dun Rite Lawn Care - aparna</t>
+  </si>
+  <si>
+    <t>Edge Communications - aparna</t>
+  </si>
+  <si>
+    <t>Education 360 - aparna</t>
+  </si>
+  <si>
+    <t>Eisner Food Stores - aparna</t>
+  </si>
+  <si>
+    <t>Eisner Food Stores2 - aparna</t>
+  </si>
+  <si>
+    <t>Erol's - aparna</t>
+  </si>
+  <si>
+    <t>Express Logistics and Transport - aparna</t>
+  </si>
+  <si>
+    <t>Express Merchant Service - aparna</t>
+  </si>
+  <si>
+    <t>External ID Org - aparna</t>
+  </si>
+  <si>
+    <t>Farrell's Ice Cream Parlour - aparna</t>
+  </si>
+  <si>
+    <t>fast org - aparna</t>
+  </si>
+  <si>
+    <t>Food Giant - aparna</t>
+  </si>
+  <si>
+    <t>Food Mart - aparna</t>
+  </si>
+  <si>
+    <t>Frame Scene - aparna</t>
+  </si>
+  <si>
+    <t>Gamma Grays - aparna</t>
+  </si>
+  <si>
+    <t>GenePoint - aparna</t>
+  </si>
+  <si>
+    <t>Gold Medal - aparna</t>
+  </si>
+  <si>
+    <t>Grand Hotels &amp; Resorts Ltd - aparna</t>
+  </si>
+  <si>
+    <t>Grey Fade - aparna</t>
+  </si>
+  <si>
+    <t>Hamady Bros. Supermarkets - aparna</t>
+  </si>
+  <si>
+    <t>Helios Air - aparna</t>
+  </si>
+  <si>
+    <t>Herman's World of Sporting Goods - aparna</t>
+  </si>
+  <si>
+    <t>Home Quarters Warehouse - aparna</t>
+  </si>
+  <si>
+    <t>HomeBase - aparna</t>
+  </si>
+  <si>
+    <t>House Of Denmark - aparna</t>
+  </si>
+  <si>
+    <t>Hudson's MensWear - aparna</t>
+  </si>
+  <si>
+    <t>Incluesiv - aparna</t>
+  </si>
+  <si>
+    <t>Indiewealth - aparna</t>
+  </si>
+  <si>
+    <t>International Widgets - aparna</t>
+  </si>
+  <si>
+    <t>IOU Money - aparna</t>
+  </si>
+  <si>
+    <t>Joe SR Org - aparna</t>
+  </si>
+  <si>
+    <t>Joe SR Private Org - aparna</t>
+  </si>
+  <si>
+    <t>John Plain - aparna</t>
+  </si>
+  <si>
+    <t>Kleinhans - aparna</t>
+  </si>
+  <si>
+    <t>Knox Lumber - aparna</t>
+  </si>
+  <si>
+    <t>Laura Ashley - aparna</t>
+  </si>
+  <si>
+    <t>Life Map - aparna</t>
+  </si>
+  <si>
+    <t>Lionel Playworld - aparna</t>
+  </si>
+  <si>
+    <t>Matrix Architectural Service - aparna</t>
+  </si>
+  <si>
+    <t>Merrymaking - aparna</t>
+  </si>
+  <si>
+    <t>Merrymaking2 - aparna</t>
+  </si>
+  <si>
+    <t>Mervyn's - aparna</t>
+  </si>
+  <si>
+    <t>Mighty Casey's - aparna</t>
+  </si>
+  <si>
+    <t>Monk Home Funding Services - aparna</t>
+  </si>
+  <si>
+    <t>Monk House Sales - aparna</t>
+  </si>
+  <si>
+    <t>Mr Fireworks - aparna</t>
+  </si>
+  <si>
+    <t>Mr. Steak - aparna</t>
+  </si>
+  <si>
+    <t>MVP Sports - aparna</t>
+  </si>
+  <si>
+    <t>National Hardgoods Distributors - aparna</t>
+  </si>
+  <si>
+    <t>Northern Reflections - aparna</t>
+  </si>
+  <si>
+    <t>Odyssey Records &amp; Tapes - aparna</t>
+  </si>
+  <si>
+    <t>Ole's - aparna</t>
+  </si>
+  <si>
+    <t>Opticomp - aparna</t>
+  </si>
+  <si>
+    <t>Pro-Care Garden Maintenance - aparna</t>
+  </si>
+  <si>
+    <t>Purity - aparna</t>
+  </si>
+  <si>
+    <t>Pyramid Construction Inc. - aparna</t>
+  </si>
+  <si>
+    <t>Rackspace Corporate - aparna</t>
+  </si>
+  <si>
+    <t>Rackspace Infrastructure - aparna</t>
+  </si>
+  <si>
+    <t>Red Bears Tavern - aparna</t>
+  </si>
+  <si>
+    <t>Red Food - aparna</t>
+  </si>
+  <si>
+    <t>Romp - aparna</t>
+  </si>
+  <si>
+    <t>Sally SR Org - aparna</t>
+  </si>
+  <si>
+    <t>Sandy's - aparna</t>
+  </si>
+  <si>
+    <t>Seth Means Org - aparna</t>
+  </si>
+  <si>
+    <t>Sew-Fro Fabrics - aparna</t>
+  </si>
+  <si>
+    <t>sForce - aparna</t>
+  </si>
+  <si>
+    <t>Singer Lumber - aparna</t>
+  </si>
+  <si>
+    <t>Sistemos - aparna</t>
+  </si>
+  <si>
+    <t>Spaceage Stereo - aparna</t>
+  </si>
+  <si>
+    <t>Speedy org - aparna</t>
+  </si>
+  <si>
+    <t>Steve's Ice Cream - aparna</t>
+  </si>
+  <si>
+    <t>Sunburst Garden Management - aparna</t>
+  </si>
+  <si>
+    <t>Suncoast Video - aparna</t>
+  </si>
+  <si>
+    <t>Test 815510052462391 - aparna</t>
+  </si>
+  <si>
+    <t>The New Org - aparna</t>
+  </si>
+  <si>
+    <t>The Pink Pig Tavern - aparna</t>
+  </si>
+  <si>
+    <t>This name is not unique - aparna</t>
+  </si>
+  <si>
+    <t>Trak Auto - aparna</t>
+  </si>
+  <si>
+    <t>Truckster Corp - aparna</t>
+  </si>
+  <si>
+    <t>Turtle's Records &amp; Tapes - aparna</t>
+  </si>
+  <si>
+    <t>United Oil &amp; Gas Corp. - aparna</t>
+  </si>
+  <si>
+    <t>United Oil &amp; Gas, Singapore - aparna</t>
+  </si>
+  <si>
+    <t>United Oil &amp; Gas, UK - aparna</t>
+  </si>
+  <si>
+    <t>University of Arizona - aparna</t>
+  </si>
+  <si>
+    <t>VIP Customers - aparna</t>
+  </si>
+  <si>
+    <t>Waccamaw Pottery - aparna</t>
+  </si>
+  <si>
+    <t>Wealthy Ideas - aparna</t>
+  </si>
+  <si>
+    <t>Wellby - aparna</t>
+  </si>
+  <si>
+    <t>z3n Rye - aparna</t>
+  </si>
+  <si>
+    <t>underscoreSRunderscore Tom Tribble - 987654 - aparna</t>
+  </si>
+  <si>
+    <t>1000bulbs.com, protonmail.com</t>
+  </si>
+  <si>
+    <t>1-stop.biz</t>
+  </si>
+  <si>
+    <t>2u.com, protonmail.com</t>
+  </si>
+  <si>
+    <t>360incentives.com</t>
+  </si>
+  <si>
+    <t>3c.com</t>
+  </si>
+  <si>
+    <t>40proof.org</t>
+  </si>
+  <si>
+    <t>sparkfarms.com</t>
+  </si>
+  <si>
+    <t>abbeal.com</t>
+  </si>
+  <si>
+    <t>allied.org, allied.co.uk, allied.biz, allied.com, allied-new.org, allied-new.biz, allied-new.com, allied-new.co.uk, allied.tv, allied.ly, allied.ca, allied.fr, allied.it, allied.de, allied.es, allied.au, allied.jp, allied.br, allied.pr, allied.pt</t>
+  </si>
+  <si>
+    <t>someunderscoredomain.com</t>
+  </si>
+  <si>
+    <t>360eproductions.com</t>
+  </si>
+  <si>
+    <t>intlwidgets.com</t>
+  </si>
+  <si>
+    <t>abcedfg.com</t>
+  </si>
+  <si>
+    <t>tuvxyz.com, bluegreen.com</t>
+  </si>
+  <si>
+    <t>foo.com, bar.com</t>
+  </si>
+  <si>
+    <t>Secondary supplier for Olympus</t>
+  </si>
+  <si>
+    <t>Dr Smith, Joan</t>
+  </si>
+  <si>
+    <t>West coast distributor of our product</t>
+  </si>
+  <si>
+    <t>line 2
+line 3</t>
+  </si>
+  <si>
+    <t>Hello
+this is a new line
+and another</t>
+  </si>
+  <si>
+    <t>Customer - Direct</t>
+  </si>
+  <si>
+    <t>Customer - Channel</t>
+  </si>
+  <si>
+    <t>here are some notes</t>
+  </si>
+  <si>
+    <t>A note on a dummy org</t>
+  </si>
+  <si>
+    <t>This is a note from the upload process</t>
+  </si>
+  <si>
+    <t>Technology Partner</t>
+  </si>
+  <si>
+    <t>apac</t>
+  </si>
+  <si>
+    <t>amer</t>
+  </si>
+  <si>
+    <t>latam</t>
+  </si>
+  <si>
+    <t>emea</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['vip']</t>
   </si>
 </sst>
 </file>
@@ -392,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +895,1861 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>15976972608</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>15976972628</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>15976972648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3535325388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>360041750613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>15976972668</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>15976972708</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>15976972728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1803986017</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>15976972748</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>360010440174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>15976972768</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>15976972788</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>15976972808</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15976972828</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>10779027607</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>10838802148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>10778644267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>10838816968</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>10778648407</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>10839371968</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20287205127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>10838814688</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>6894522008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>10838814908</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10838810348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>10838818988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2208998868</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>10778650407</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>10838839568</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>10838814808</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>10778642187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>10778617287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>10838800148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2208998888</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>10838837488</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2208998858</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>15976972688</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>10838798148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>10778646327</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>10778637947</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>2208998908</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>10838812608</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>6983191847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>10778619527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>360039599453</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>10838795988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>10838812528</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>10838798008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>10838833168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2208998828</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>10778654527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>2208998898</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>10778646307</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>10838833248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>10838812648</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>10838808268</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>10778656647</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>10838812408</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>10778617367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>10838814868</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>10838793928</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>10778656627</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>20287205107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>7660595647</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>10779004187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>10787647727</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>10838835348</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>10778642047</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>10778642107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>10838812488</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>10838831148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>10838839548</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>10838839528</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>10778615267</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>10778623727</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>10838812568</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>10838829148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>158</v>
+      </c>
+      <c r="G79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>10838835388</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>10778642167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>10516372027</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>10838835488</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>10838810308</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>10778635907</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>10778646387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>10838821028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
+      <c r="G87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>10838823068</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>10778656607</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>10778652467</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>10778642087</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>2208998878</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" t="s">
+        <v>161</v>
+      </c>
+      <c r="G92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>3535315768</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>3535317298</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>159</v>
+      </c>
+      <c r="G94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>10838812668</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>10778654467</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>10778640027</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>10838903188</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>10778656707</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>10838980228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>10838810388</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>2208998938</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+      <c r="G102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>10778619687</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>10778619547</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>10838806168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>360039599413</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>10778654507</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>10838814768</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>10778611187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>10789859667</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>2371912888</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>10838812448</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>161</v>
+      </c>
+      <c r="G112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>15622168627</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>158</v>
+      </c>
+      <c r="G113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>10838827068</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1748320238</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>10838816928</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" t="s">
+        <v>159</v>
+      </c>
+      <c r="G116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>2208998928</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" t="s">
+        <v>161</v>
+      </c>
+      <c r="G117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>2208998848</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>2208998838</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" t="s">
+        <v>158</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>2208998918</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
+        <v>152</v>
+      </c>
+      <c r="F120" t="s">
+        <v>160</v>
+      </c>
+      <c r="G120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>10789922867</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" t="s">
+        <v>160</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>10778615207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" t="s">
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>10838808228</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>10838798068</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>1718055597</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>7660612287</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" t="s">
+        <v>161</v>
+      </c>
+      <c r="G126" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/org_list.xlsx
+++ b/scripts/org_list.xlsx
@@ -85,7 +85,7 @@
     <t>Allied Agent Office - aparna</t>
   </si>
   <si>
-    <t>Ardan's - aparna</t>
+    <t>Ardans - aparna</t>
   </si>
   <si>
     <t>Asian Fusion - aparna</t>
@@ -106,7 +106,7 @@
     <t>Blockbuster Music - aparna</t>
   </si>
   <si>
-    <t>Bob's super ford - aparna</t>
+    <t>Bobs super ford - aparna</t>
   </si>
   <si>
     <t>Bodega Club - aparna</t>
@@ -157,7 +157,7 @@
     <t>Eisner Food Stores2 - aparna</t>
   </si>
   <si>
-    <t>Erol's - aparna</t>
+    <t>Erols - aparna</t>
   </si>
   <si>
     <t>Express Logistics and Transport - aparna</t>
@@ -169,7 +169,7 @@
     <t>External ID Org - aparna</t>
   </si>
   <si>
-    <t>Farrell's Ice Cream Parlour - aparna</t>
+    <t>Farrells Ice Cream Parlour - aparna</t>
   </si>
   <si>
     <t>fast org - aparna</t>
@@ -193,7 +193,7 @@
     <t>Gold Medal - aparna</t>
   </si>
   <si>
-    <t>Grand Hotels &amp; Resorts Ltd - aparna</t>
+    <t>Grand Hotels  Resorts Ltd - aparna</t>
   </si>
   <si>
     <t>Grey Fade - aparna</t>
@@ -205,7 +205,7 @@
     <t>Helios Air - aparna</t>
   </si>
   <si>
-    <t>Herman's World of Sporting Goods - aparna</t>
+    <t>Hermans World of Sporting Goods - aparna</t>
   </si>
   <si>
     <t>Home Quarters Warehouse - aparna</t>
@@ -217,7 +217,7 @@
     <t>House Of Denmark - aparna</t>
   </si>
   <si>
-    <t>Hudson's MensWear - aparna</t>
+    <t>Hudsons MensWear - aparna</t>
   </si>
   <si>
     <t>Incluesiv - aparna</t>
@@ -265,10 +265,10 @@
     <t>Merrymaking2 - aparna</t>
   </si>
   <si>
-    <t>Mervyn's - aparna</t>
-  </si>
-  <si>
-    <t>Mighty Casey's - aparna</t>
+    <t>Mervyns - aparna</t>
+  </si>
+  <si>
+    <t>Mighty Caseys - aparna</t>
   </si>
   <si>
     <t>Monk Home Funding Services - aparna</t>
@@ -292,10 +292,10 @@
     <t>Northern Reflections - aparna</t>
   </si>
   <si>
-    <t>Odyssey Records &amp; Tapes - aparna</t>
-  </si>
-  <si>
-    <t>Ole's - aparna</t>
+    <t>Odyssey Records  Tapes - aparna</t>
+  </si>
+  <si>
+    <t>Oles - aparna</t>
   </si>
   <si>
     <t>Opticomp - aparna</t>
@@ -328,7 +328,7 @@
     <t>Sally SR Org - aparna</t>
   </si>
   <si>
-    <t>Sandy's - aparna</t>
+    <t>Sandys - aparna</t>
   </si>
   <si>
     <t>Seth Means Org - aparna</t>
@@ -352,7 +352,7 @@
     <t>Speedy org - aparna</t>
   </si>
   <si>
-    <t>Steve's Ice Cream - aparna</t>
+    <t>Steves Ice Cream - aparna</t>
   </si>
   <si>
     <t>Sunburst Garden Management - aparna</t>
@@ -379,16 +379,16 @@
     <t>Truckster Corp - aparna</t>
   </si>
   <si>
-    <t>Turtle's Records &amp; Tapes - aparna</t>
-  </si>
-  <si>
-    <t>United Oil &amp; Gas Corp. - aparna</t>
-  </si>
-  <si>
-    <t>United Oil &amp; Gas, Singapore - aparna</t>
-  </si>
-  <si>
-    <t>United Oil &amp; Gas, UK - aparna</t>
+    <t>Turtles Records  Tapes - aparna</t>
+  </si>
+  <si>
+    <t>United Oil  Gas Corp. - aparna</t>
+  </si>
+  <si>
+    <t>United Oil  Gas, Singapore - aparna</t>
+  </si>
+  <si>
+    <t>United Oil  Gas, UK - aparna</t>
   </si>
   <si>
     <t>University of Arizona - aparna</t>

--- a/scripts/org_list.xlsx
+++ b/scripts/org_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,480 @@
   </si>
   <si>
     <t>tags</t>
+  </si>
+  <si>
+    <t>1,000 Bulbs</t>
+  </si>
+  <si>
+    <t>1-800-Flowers.Com Inc</t>
+  </si>
+  <si>
+    <t>1-Stop Connections</t>
+  </si>
+  <si>
+    <t>1077207-Moneygram International</t>
+  </si>
+  <si>
+    <t>123456789_flagged_for_inspection</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>360 Incentives</t>
+  </si>
+  <si>
+    <t>3Cinteractive</t>
+  </si>
+  <si>
+    <t>40 Proof</t>
+  </si>
+  <si>
+    <t>757 Creative Space</t>
+  </si>
+  <si>
+    <t>8254111111111_flagged_for_inspection</t>
+  </si>
+  <si>
+    <t>8th Sphere</t>
+  </si>
+  <si>
+    <t>A10 Capital</t>
+  </si>
+  <si>
+    <t>ABA English</t>
+  </si>
+  <si>
+    <t>abbeal</t>
+  </si>
+  <si>
+    <t>Allied Agent Office</t>
+  </si>
+  <si>
+    <t>Ardans</t>
+  </si>
+  <si>
+    <t>Asian Fusion</t>
+  </si>
+  <si>
+    <t>Avant Garde Appraisal</t>
+  </si>
+  <si>
+    <t>Avant Garde Interior Designs</t>
+  </si>
+  <si>
+    <t>Barbara Todd Org</t>
+  </si>
+  <si>
+    <t>Beecher Supply</t>
+  </si>
+  <si>
+    <t>Blockbuster Music</t>
+  </si>
+  <si>
+    <t>Bobs super ford</t>
+  </si>
+  <si>
+    <t>Bodega Club</t>
+  </si>
+  <si>
+    <t>Bugle Boy</t>
+  </si>
+  <si>
+    <t>Builders Emporium</t>
+  </si>
+  <si>
+    <t>Burlington Textiles Corp of America</t>
+  </si>
+  <si>
+    <t>Circuit City</t>
+  </si>
+  <si>
+    <t>Clemens Markets</t>
+  </si>
+  <si>
+    <t>Country Club Markets</t>
+  </si>
+  <si>
+    <t>Country Club Markets2</t>
+  </si>
+  <si>
+    <t>Crazy Tiger</t>
+  </si>
+  <si>
+    <t>Deco Refreshments, Inc.</t>
+  </si>
+  <si>
+    <t>Dickenson plc</t>
+  </si>
+  <si>
+    <t>Dun Rite Lawn Care</t>
+  </si>
+  <si>
+    <t>Edge Communications</t>
+  </si>
+  <si>
+    <t>Education 360</t>
+  </si>
+  <si>
+    <t>Eisner Food Stores</t>
+  </si>
+  <si>
+    <t>Eisner Food Stores2</t>
+  </si>
+  <si>
+    <t>Erols</t>
+  </si>
+  <si>
+    <t>Express Logistics and Transport</t>
+  </si>
+  <si>
+    <t>Express Merchant Service</t>
+  </si>
+  <si>
+    <t>External ID Org</t>
+  </si>
+  <si>
+    <t>Farrells Ice Cream Parlour</t>
+  </si>
+  <si>
+    <t>fast org</t>
+  </si>
+  <si>
+    <t>Food Giant</t>
+  </si>
+  <si>
+    <t>Food Mart</t>
+  </si>
+  <si>
+    <t>Frame Scene</t>
+  </si>
+  <si>
+    <t>Gamma Grays</t>
+  </si>
+  <si>
+    <t>GenePoint</t>
+  </si>
+  <si>
+    <t>Gold Medal</t>
+  </si>
+  <si>
+    <t>Grand Hotels  Resorts Ltd</t>
+  </si>
+  <si>
+    <t>Grey Fade</t>
+  </si>
+  <si>
+    <t>Hamady Bros. Supermarkets</t>
+  </si>
+  <si>
+    <t>Helios Air</t>
+  </si>
+  <si>
+    <t>Hermans World of Sporting Goods</t>
+  </si>
+  <si>
+    <t>Home Quarters Warehouse</t>
+  </si>
+  <si>
+    <t>HomeBase</t>
+  </si>
+  <si>
+    <t>House Of Denmark</t>
+  </si>
+  <si>
+    <t>Hudsons MensWear</t>
+  </si>
+  <si>
+    <t>Incluesiv</t>
+  </si>
+  <si>
+    <t>Indiewealth</t>
+  </si>
+  <si>
+    <t>International Widgets</t>
+  </si>
+  <si>
+    <t>IOU Money</t>
+  </si>
+  <si>
+    <t>Joe SR Org</t>
+  </si>
+  <si>
+    <t>Joe SR Private Org</t>
+  </si>
+  <si>
+    <t>John Plain</t>
+  </si>
+  <si>
+    <t>Kleinhans</t>
+  </si>
+  <si>
+    <t>Knox Lumber</t>
+  </si>
+  <si>
+    <t>Laura Ashley</t>
+  </si>
+  <si>
+    <t>Life Map</t>
+  </si>
+  <si>
+    <t>Lionel Playworld</t>
+  </si>
+  <si>
+    <t>Matrix Architectural Service</t>
+  </si>
+  <si>
+    <t>Merrymaking</t>
+  </si>
+  <si>
+    <t>Merrymaking2</t>
+  </si>
+  <si>
+    <t>Mervyns</t>
+  </si>
+  <si>
+    <t>Mighty Caseys</t>
+  </si>
+  <si>
+    <t>Monk Home Funding Services</t>
+  </si>
+  <si>
+    <t>Monk House Sales</t>
+  </si>
+  <si>
+    <t>Mr Fireworks</t>
+  </si>
+  <si>
+    <t>Mr. Steak</t>
+  </si>
+  <si>
+    <t>MVP Sports</t>
+  </si>
+  <si>
+    <t>National Hardgoods Distributors</t>
+  </si>
+  <si>
+    <t>Northern Reflections</t>
+  </si>
+  <si>
+    <t>Odyssey Records  Tapes</t>
+  </si>
+  <si>
+    <t>Oles</t>
+  </si>
+  <si>
+    <t>Opticomp</t>
+  </si>
+  <si>
+    <t>Pro-Care Garden Maintenance</t>
+  </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t>Pyramid Construction Inc.</t>
+  </si>
+  <si>
+    <t>Rackspace Corporate</t>
+  </si>
+  <si>
+    <t>Rackspace Infrastructure</t>
+  </si>
+  <si>
+    <t>Red Bears Tavern</t>
+  </si>
+  <si>
+    <t>Red Food</t>
+  </si>
+  <si>
+    <t>Romp</t>
+  </si>
+  <si>
+    <t>Sally SR Org</t>
+  </si>
+  <si>
+    <t>Sandys</t>
+  </si>
+  <si>
+    <t>Seth Means Org</t>
+  </si>
+  <si>
+    <t>Sew-Fro Fabrics</t>
+  </si>
+  <si>
+    <t>sForce</t>
+  </si>
+  <si>
+    <t>Singer Lumber</t>
+  </si>
+  <si>
+    <t>Sistemos</t>
+  </si>
+  <si>
+    <t>Spaceage Stereo</t>
+  </si>
+  <si>
+    <t>Speedy org</t>
+  </si>
+  <si>
+    <t>Steves Ice Cream</t>
+  </si>
+  <si>
+    <t>Sunburst Garden Management</t>
+  </si>
+  <si>
+    <t>Suncoast Video</t>
+  </si>
+  <si>
+    <t>Test 815510052462391</t>
+  </si>
+  <si>
+    <t>The New Org</t>
+  </si>
+  <si>
+    <t>The Pink Pig Tavern</t>
+  </si>
+  <si>
+    <t>This name is not unique</t>
+  </si>
+  <si>
+    <t>Trak Auto</t>
+  </si>
+  <si>
+    <t>Truckster Corp</t>
+  </si>
+  <si>
+    <t>Turtles Records  Tapes</t>
+  </si>
+  <si>
+    <t>United Oil  Gas Corp.</t>
+  </si>
+  <si>
+    <t>United Oil  Gas, Singapore</t>
+  </si>
+  <si>
+    <t>United Oil  Gas, UK</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>VIP Customers</t>
+  </si>
+  <si>
+    <t>Waccamaw Pottery</t>
+  </si>
+  <si>
+    <t>Wealthy Ideas</t>
+  </si>
+  <si>
+    <t>Wellby</t>
+  </si>
+  <si>
+    <t>z3n Rye</t>
+  </si>
+  <si>
+    <t>_SR_ Tom Tribble - 987654</t>
+  </si>
+  <si>
+    <t>1000bulbs.com, protonmail.com</t>
+  </si>
+  <si>
+    <t>1-stop.biz</t>
+  </si>
+  <si>
+    <t>2u.com, protonmail.com</t>
+  </si>
+  <si>
+    <t>360incentives.com</t>
+  </si>
+  <si>
+    <t>3c.com</t>
+  </si>
+  <si>
+    <t>40proof.org</t>
+  </si>
+  <si>
+    <t>sparkfarms.com</t>
+  </si>
+  <si>
+    <t>abbeal.com</t>
+  </si>
+  <si>
+    <t>allied.org, allied.co.uk, allied.biz, allied.com, allied-new.org, allied-new.biz, allied-new.com, allied-new.co.uk, allied.tv, allied.ly, allied.ca, allied.fr, allied.it, allied.de, allied.es, allied.au, allied.jp, allied.br, allied.pr, allied.pt</t>
+  </si>
+  <si>
+    <t>someunderscoredomain.com</t>
+  </si>
+  <si>
+    <t>360eproductions.com</t>
+  </si>
+  <si>
+    <t>intlwidgets.com</t>
+  </si>
+  <si>
+    <t>abcedfg.com</t>
+  </si>
+  <si>
+    <t>tuvxyz.com, bluegreen.com</t>
+  </si>
+  <si>
+    <t>foo.com, bar.com</t>
+  </si>
+  <si>
+    <t>Secondary supplier for Olympus</t>
+  </si>
+  <si>
+    <t>Dr Smith, Joan</t>
+  </si>
+  <si>
+    <t>West coast distributor of our product</t>
+  </si>
+  <si>
+    <t>line 2
+line 3</t>
+  </si>
+  <si>
+    <t>Hello
+this is a new line
+and another</t>
+  </si>
+  <si>
+    <t>Customer - Direct</t>
+  </si>
+  <si>
+    <t>Customer - Channel</t>
+  </si>
+  <si>
+    <t>here are some notes</t>
+  </si>
+  <si>
+    <t>A note on a dummy org</t>
+  </si>
+  <si>
+    <t>This is a note from the upload process</t>
+  </si>
+  <si>
+    <t>Technology Partner</t>
+  </si>
+  <si>
+    <t>apac</t>
+  </si>
+  <si>
+    <t>amer</t>
+  </si>
+  <si>
+    <t>latam</t>
+  </si>
+  <si>
+    <t>emea</t>
+  </si>
+  <si>
+    <t>aparna</t>
+  </si>
+  <si>
+    <t>vip, aparna</t>
   </si>
 </sst>
 </file>
@@ -392,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +895,1861 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>15976972608</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>15976972628</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>15976972648</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3535325388</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>360041750613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>15976972668</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>15976972708</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>15976972728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>1803986017</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>15976972748</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>360010440174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>15976972768</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>15976972788</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>15976972808</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15976972828</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>10779027607</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>10838802148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>10778644267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>10838816968</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>10778648407</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>10839371968</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20287205127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>10838814688</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>6894522008</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>10838814908</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10838810348</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>10838818988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2208998868</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>10778650407</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>10838839568</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>10838814808</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>10778642187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>10778617287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>10838800148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2208998888</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>10838837488</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2208998858</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>15976972688</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>10838798148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>10778646327</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>10778637947</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>2208998908</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>10838812608</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>6983191847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>10778619527</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>360039599453</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>10838795988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>10838812528</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>10838798008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>10838833168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2208998828</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>10778654527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>2208998898</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>10778646307</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>10838833248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>10838812648</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>10838808268</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>10778656647</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>10838812408</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>10778617367</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>10838814868</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>10838793928</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>10778656627</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>20287205107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>7660595647</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>10779004187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>10787647727</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>10838835348</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>10778642047</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>10778642107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>10838812488</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>10838831148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>10838839548</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>10838839528</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>10778615267</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>10778623727</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>10838812568</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>10838829148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>158</v>
+      </c>
+      <c r="G79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>10838835388</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>10778642167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>10516372027</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>10838835488</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>10838810308</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>10778635907</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>10778646387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" t="s">
+        <v>160</v>
+      </c>
+      <c r="G86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>10838821028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
+      <c r="G87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>10838823068</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>10778656607</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>10778652467</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>10778642087</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" t="s">
+        <v>160</v>
+      </c>
+      <c r="G91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>2208998878</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" t="s">
+        <v>161</v>
+      </c>
+      <c r="G92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>3535315768</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>3535317298</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>159</v>
+      </c>
+      <c r="G94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>10838812668</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="F95" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>10778654467</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>10778640027</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>10838903188</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>10778656707</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
+      <c r="G99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>10838980228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>10838810388</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>2208998938</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" t="s">
+        <v>161</v>
+      </c>
+      <c r="G102" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>10778619687</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>10778619547</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>10838806168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>360039599413</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>10778654507</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="F107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>10838814768</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="F108" t="s">
+        <v>159</v>
+      </c>
+      <c r="G108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>10778611187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>10789859667</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>2371912888</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>10838812448</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>161</v>
+      </c>
+      <c r="G112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>15622168627</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>158</v>
+      </c>
+      <c r="G113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>10838827068</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1748320238</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>10838816928</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" t="s">
+        <v>159</v>
+      </c>
+      <c r="G116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>2208998928</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" t="s">
+        <v>161</v>
+      </c>
+      <c r="G117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>2208998848</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>2208998838</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" t="s">
+        <v>158</v>
+      </c>
+      <c r="G119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>2208998918</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
+        <v>152</v>
+      </c>
+      <c r="F120" t="s">
+        <v>160</v>
+      </c>
+      <c r="G120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>10789922867</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" t="s">
+        <v>160</v>
+      </c>
+      <c r="G121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>10778615207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" t="s">
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>10838808228</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" t="s">
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>10838798068</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>1718055597</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>7660612287</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" t="s">
+        <v>161</v>
+      </c>
+      <c r="G126" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
